--- a/assets/upload/upload_nilai_pegawai.xlsx
+++ b/assets/upload/upload_nilai_pegawai.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\master_ho\assets\upload\format\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9390"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -59,11 +54,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,11 +110,11 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -180,7 +175,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -215,7 +210,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -392,27 +387,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -435,7 +430,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -458,7 +453,7 @@
         <v>44241</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -481,12 +476,12 @@
         <v>44606</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="4">
-        <v>220927</v>
+        <v>123456</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>7</v>
@@ -504,12 +499,12 @@
         <v>44241</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="4">
-        <v>220927</v>
+        <v>123456</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>7</v>

--- a/assets/upload/upload_nilai_pegawai.xlsx
+++ b/assets/upload/upload_nilai_pegawai.xlsx
@@ -1,65 +1,96 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Murry Febriansyah P\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9390"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20052" windowHeight="7956"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>NO</t>
   </si>
   <si>
+    <t>ID USER</t>
+  </si>
+  <si>
     <t>NPK</t>
   </si>
   <si>
+    <t>TAHUN</t>
+  </si>
+  <si>
     <t>NAMA</t>
   </si>
   <si>
-    <t>ID_USER</t>
-  </si>
-  <si>
-    <t>NILAI</t>
-  </si>
-  <si>
-    <t>TAHUN</t>
-  </si>
-  <si>
-    <t>TANGGAL</t>
-  </si>
-  <si>
-    <t>Murry</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
+    <t>PERUSAHAAN</t>
+  </si>
+  <si>
+    <t>TANGGAL BERGABUNG</t>
+  </si>
+  <si>
+    <t>FEBRIANSYAH</t>
+  </si>
+  <si>
+    <t>MURRY</t>
+  </si>
+  <si>
+    <t>masuk</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="[$-10484]yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -105,19 +136,33 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2 3" xfId="3"/>
+    <cellStyle name="Normal 5 2" xfId="1"/>
+    <cellStyle name="Normal 6 2" xfId="2"/>
+    <cellStyle name="Normal 7" xfId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -143,39 +188,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -210,7 +255,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -254,276 +299,298 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="43.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" style="2"/>
+    <col min="10" max="10" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="H1"/>
+      <c r="I1"/>
+      <c r="J1"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="4">
         <v>220220</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="4">
+      <c r="C2" s="4">
         <v>220220</v>
       </c>
+      <c r="D2" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="E2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="4">
+        <v>9</v>
+      </c>
+      <c r="F2" s="5">
+        <v>44298</v>
+      </c>
+      <c r="G2" s="4">
         <v>2021</v>
       </c>
-      <c r="G2" s="5">
-        <v>44241</v>
-      </c>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="4">
-        <v>220220</v>
-      </c>
-      <c r="C3" s="4" t="s">
+        <v>220212</v>
+      </c>
+      <c r="C3" s="4">
+        <v>220212</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="4">
-        <v>220220</v>
-      </c>
       <c r="E3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="4">
-        <v>2022</v>
-      </c>
-      <c r="G3" s="5">
-        <v>44606</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4">
-        <v>123456</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="4">
-        <v>220927</v>
-      </c>
-      <c r="E4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F3" s="5">
+        <v>44298</v>
+      </c>
+      <c r="G3" s="4">
         <v>2021</v>
       </c>
-      <c r="G4" s="5">
-        <v>44241</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4">
-        <v>123456</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="4">
-        <v>220927</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="4">
-        <v>2022</v>
-      </c>
-      <c r="G5" s="5">
-        <v>44606</v>
-      </c>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/assets/upload/upload_nilai_pegawai.xlsx
+++ b/assets/upload/upload_nilai_pegawai.xlsx
@@ -1,96 +1,67 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Murry Febriansyah P\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\master_ho\assets\upload\format\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20052" windowHeight="7956"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>NO</t>
   </si>
   <si>
+    <t>NPK</t>
+  </si>
+  <si>
+    <t>NAMA</t>
+  </si>
+  <si>
+    <t>NILAI</t>
+  </si>
+  <si>
+    <t>TAHUN</t>
+  </si>
+  <si>
+    <t>TANGGAL</t>
+  </si>
+  <si>
+    <t>Murry</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
     <t>ID USER</t>
-  </si>
-  <si>
-    <t>NPK</t>
-  </si>
-  <si>
-    <t>TAHUN</t>
-  </si>
-  <si>
-    <t>NAMA</t>
-  </si>
-  <si>
-    <t>PERUSAHAAN</t>
-  </si>
-  <si>
-    <t>TANGGAL BERGABUNG</t>
-  </si>
-  <si>
-    <t>FEBRIANSYAH</t>
-  </si>
-  <si>
-    <t>MURRY</t>
-  </si>
-  <si>
-    <t>masuk</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="[$-10484]yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -136,33 +107,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2 3" xfId="3"/>
-    <cellStyle name="Normal 5 2" xfId="1"/>
-    <cellStyle name="Normal 6 2" xfId="2"/>
-    <cellStyle name="Normal 7" xfId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -188,39 +145,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -299,219 +256,184 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="43.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" style="2"/>
-    <col min="10" max="10" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1"/>
-      <c r="I1"/>
-      <c r="J1"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -522,75 +444,43 @@
         <v>220220</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="5">
-        <v>44298</v>
-      </c>
-      <c r="G2" s="4">
+        <v>7</v>
+      </c>
+      <c r="F2" s="4">
         <v>2021</v>
       </c>
-      <c r="H2"/>
-      <c r="I2"/>
-      <c r="J2"/>
+      <c r="G2" s="5">
+        <v>44241</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="4">
-        <v>220212</v>
+        <v>220220</v>
       </c>
       <c r="C3" s="4">
-        <v>220212</v>
+        <v>220220</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="5">
-        <v>44298</v>
-      </c>
-      <c r="G3" s="4">
-        <v>2021</v>
-      </c>
-      <c r="H3"/>
-      <c r="I3"/>
-      <c r="J3"/>
+      <c r="F3" s="4">
+        <v>2022</v>
+      </c>
+      <c r="G3" s="5">
+        <v>44606</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>